--- a/data/QC/质控组仪表盘8-2.xlsx
+++ b/data/QC/质控组仪表盘8-2.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B694169-2047-4767-AA44-05CA55C9748D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -72,9 +71,6 @@
     <t>下单错误数</t>
   </si>
   <si>
-    <t>质控组</t>
-  </si>
-  <si>
     <t>张悦</t>
   </si>
   <si>
@@ -152,12 +148,15 @@
   <si>
     <t>8-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,23 +296,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,23 +331,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,11 +506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,13 +573,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -664,13 +629,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>47</v>
@@ -720,13 +685,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>58</v>
@@ -776,13 +741,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>74</v>
@@ -838,11 +803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,75 +823,75 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D2">
         <v>37</v>
